--- a/SchedulingData/dynamic11/pso/scheduling1_13.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_13.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.4</v>
+        <v>43.4</v>
       </c>
       <c r="E2" t="n">
         <v>26.36</v>
@@ -481,154 +481,154 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58.4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99.12</v>
+        <v>69.72</v>
       </c>
       <c r="E3" t="n">
-        <v>22.928</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>55.28</v>
+        <v>61.32</v>
       </c>
       <c r="E4" t="n">
-        <v>26.152</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.28</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>108.3</v>
+        <v>42.7</v>
       </c>
       <c r="E5" t="n">
-        <v>22.98</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.12</v>
+        <v>42.7</v>
       </c>
       <c r="D6" t="n">
-        <v>149.42</v>
+        <v>92.48</v>
       </c>
       <c r="E6" t="n">
-        <v>19.028</v>
+        <v>23.072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>108.3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>172.78</v>
+        <v>56.26</v>
       </c>
       <c r="E7" t="n">
-        <v>19.132</v>
+        <v>26.544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>84.72</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>25.688</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="D9" t="n">
-        <v>62.26</v>
+        <v>106.22</v>
       </c>
       <c r="E9" t="n">
-        <v>25.944</v>
+        <v>23.188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>106.22</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>170.7</v>
       </c>
       <c r="E10" t="n">
-        <v>26.48</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>92.48</v>
       </c>
       <c r="D11" t="n">
-        <v>74.12</v>
+        <v>134.08</v>
       </c>
       <c r="E11" t="n">
-        <v>25.788</v>
+        <v>19.552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>61.32</v>
       </c>
       <c r="D12" t="n">
-        <v>117.48</v>
+        <v>129.84</v>
       </c>
       <c r="E12" t="n">
-        <v>23.532</v>
+        <v>22.356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62.26</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>143.26</v>
+        <v>134.76</v>
       </c>
       <c r="E13" t="n">
-        <v>21.464</v>
+        <v>23.304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>172.78</v>
+        <v>134.08</v>
       </c>
       <c r="D14" t="n">
-        <v>247.68</v>
+        <v>208.28</v>
       </c>
       <c r="E14" t="n">
-        <v>15.712</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84.72</v>
+        <v>69.72</v>
       </c>
       <c r="D15" t="n">
-        <v>145.58</v>
+        <v>132.62</v>
       </c>
       <c r="E15" t="n">
-        <v>22.232</v>
+        <v>21.528</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>247.68</v>
+        <v>170.7</v>
       </c>
       <c r="D16" t="n">
-        <v>301.04</v>
+        <v>256.3</v>
       </c>
       <c r="E16" t="n">
-        <v>12.976</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>143.26</v>
+        <v>208.28</v>
       </c>
       <c r="D17" t="n">
-        <v>181.58</v>
+        <v>266.54</v>
       </c>
       <c r="E17" t="n">
-        <v>18.272</v>
+        <v>12.016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>149.42</v>
+        <v>134.76</v>
       </c>
       <c r="D18" t="n">
-        <v>222.02</v>
+        <v>209.66</v>
       </c>
       <c r="E18" t="n">
-        <v>14.868</v>
+        <v>19.404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>117.48</v>
+        <v>256.3</v>
       </c>
       <c r="D19" t="n">
-        <v>156.14</v>
+        <v>292.24</v>
       </c>
       <c r="E19" t="n">
-        <v>20.796</v>
+        <v>12.396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>145.58</v>
+        <v>129.84</v>
       </c>
       <c r="D20" t="n">
-        <v>203.08</v>
+        <v>190.84</v>
       </c>
       <c r="E20" t="n">
-        <v>19.592</v>
+        <v>17.876</v>
       </c>
     </row>
     <row r="21">
@@ -831,32 +831,32 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.12</v>
+        <v>266.54</v>
       </c>
       <c r="D21" t="n">
-        <v>157.42</v>
+        <v>330.34</v>
       </c>
       <c r="E21" t="n">
-        <v>21.048</v>
+        <v>7.276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>181.58</v>
+        <v>56.26</v>
       </c>
       <c r="D22" t="n">
-        <v>228.16</v>
+        <v>109.76</v>
       </c>
       <c r="E22" t="n">
-        <v>14.744</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>156.14</v>
+        <v>209.66</v>
       </c>
       <c r="D23" t="n">
-        <v>212.94</v>
+        <v>265.16</v>
       </c>
       <c r="E23" t="n">
-        <v>17.716</v>
+        <v>15.984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>157.42</v>
+        <v>132.62</v>
       </c>
       <c r="D24" t="n">
-        <v>233.22</v>
+        <v>209.2</v>
       </c>
       <c r="E24" t="n">
-        <v>16.568</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -903,112 +903,112 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>228.16</v>
+        <v>209.2</v>
       </c>
       <c r="D25" t="n">
-        <v>341.96</v>
+        <v>300.04</v>
       </c>
       <c r="E25" t="n">
-        <v>9.944000000000001</v>
+        <v>14.516</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>233.22</v>
+        <v>300.04</v>
       </c>
       <c r="D26" t="n">
-        <v>289.32</v>
+        <v>363.6</v>
       </c>
       <c r="E26" t="n">
-        <v>12.088</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>212.94</v>
+        <v>190.84</v>
       </c>
       <c r="D27" t="n">
-        <v>273.88</v>
+        <v>256.74</v>
       </c>
       <c r="E27" t="n">
-        <v>15.252</v>
+        <v>13.396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301.04</v>
+        <v>256.74</v>
       </c>
       <c r="D28" t="n">
-        <v>354.44</v>
+        <v>295.06</v>
       </c>
       <c r="E28" t="n">
-        <v>9.256</v>
+        <v>10.204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>222.02</v>
+        <v>109.76</v>
       </c>
       <c r="D29" t="n">
-        <v>273.98</v>
+        <v>180.24</v>
       </c>
       <c r="E29" t="n">
-        <v>10.812</v>
+        <v>19.876</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>289.32</v>
+        <v>265.16</v>
       </c>
       <c r="D30" t="n">
-        <v>360.56</v>
+        <v>346.62</v>
       </c>
       <c r="E30" t="n">
-        <v>8.603999999999999</v>
+        <v>11.928</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>203.08</v>
+        <v>180.24</v>
       </c>
       <c r="D31" t="n">
-        <v>241.98</v>
+        <v>224.14</v>
       </c>
       <c r="E31" t="n">
-        <v>16.832</v>
+        <v>17.116</v>
       </c>
     </row>
   </sheetData>
